--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -539,7 +539,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -938,7 +938,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1063,7 +1063,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1086,7 +1086,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1185,7 +1185,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1426,7 +1426,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1514,7 +1514,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1547,7 +1547,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1559,7 +1559,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1587,7 +1587,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1667,7 +1667,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1717,7 +1717,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1750,7 +1750,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1787,7 +1787,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1809,7 +1809,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1927,7 +1927,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2277,7 +2277,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3392,7 +3392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>183</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>206</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>221</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>235</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>253</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>289</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>327</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>354</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>396</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>402</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>423</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>431</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>440</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>448</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>580</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>590</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>596</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>605</v>
       </c>
@@ -12444,12 +12444,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP84">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-mass-index.xlsx
+++ b/docs/StructureDefinition-body-mass-index.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
